--- a/Team-Data/2013-14/1-8-2013-14.xlsx
+++ b/Team-Data/2013-14/1-8-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.528</v>
+        <v>0.514</v>
       </c>
       <c r="H2" t="n">
         <v>48.7</v>
       </c>
       <c r="I2" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J2" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.459</v>
@@ -693,10 +760,10 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O2" t="n">
         <v>16.5</v>
@@ -705,22 +772,22 @@
         <v>21.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.772</v>
+        <v>0.769</v>
       </c>
       <c r="R2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T2" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U2" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W2" t="n">
         <v>8.6</v>
@@ -732,19 +799,19 @@
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -759,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -777,34 +844,34 @@
         <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP2" t="n">
         <v>20</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -848,91 +915,91 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.361</v>
+        <v>0.371</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J3" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>18.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P3" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R3" t="n">
         <v>10.5</v>
       </c>
       <c r="S3" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U3" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="V3" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W3" t="n">
         <v>6.7</v>
       </c>
       <c r="X3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF3" t="n">
         <v>23</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>25</v>
       </c>
       <c r="AG3" t="n">
         <v>23</v>
@@ -941,13 +1008,13 @@
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -956,16 +1023,16 @@
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
@@ -977,7 +1044,7 @@
         <v>23</v>
       </c>
       <c r="AU3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV3" t="n">
         <v>26</v>
@@ -986,22 +1053,22 @@
         <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>27</v>
       </c>
       <c r="BB3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.382</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1048,28 +1115,28 @@
         <v>34.6</v>
       </c>
       <c r="J4" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0.443</v>
       </c>
       <c r="L4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
         <v>20.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O4" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="P4" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="R4" t="n">
         <v>9.6</v>
@@ -1078,19 +1145,19 @@
         <v>30.1</v>
       </c>
       <c r="T4" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="n">
         <v>4</v>
@@ -1099,28 +1166,28 @@
         <v>22.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.5</v>
+        <v>-4.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1135,37 +1202,37 @@
         <v>16</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN4" t="n">
         <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP4" t="n">
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS4" t="n">
         <v>26</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
       </c>
       <c r="AU4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW4" t="n">
         <v>24</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1177,13 +1244,13 @@
         <v>24</v>
       </c>
       <c r="BA4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
@@ -1302,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
@@ -1338,7 +1405,7 @@
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>-0.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
         <v>16</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>16</v>
@@ -1505,13 +1572,13 @@
         <v>29</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>24</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
         <v>25</v>
@@ -1669,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1681,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
         <v>12</v>
@@ -1693,7 +1760,7 @@
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1714,13 +1781,13 @@
         <v>25</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY7" t="n">
         <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
         <v>21</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.556</v>
+        <v>0.571</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,70 +1843,70 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>84.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="L8" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N8" t="n">
         <v>0.369</v>
       </c>
       <c r="O8" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="P8" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.797</v>
+        <v>0.799</v>
       </c>
       <c r="R8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>40.2</v>
+        <v>40.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>4.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z8" t="n">
         <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1869,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AP8" t="n">
         <v>28</v>
@@ -1890,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1908,10 +1975,10 @@
         <v>30</v>
       </c>
       <c r="BB8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC8" t="n">
         <v>11</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2042,7 +2109,7 @@
         <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM9" t="n">
         <v>13</v>
@@ -2063,10 +2130,10 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>14</v>
@@ -2078,13 +2145,13 @@
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>0.389</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J10" t="n">
         <v>85.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M10" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.313</v>
+        <v>0.314</v>
       </c>
       <c r="O10" t="n">
         <v>16.3</v>
       </c>
       <c r="P10" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.66</v>
+        <v>0.665</v>
       </c>
       <c r="R10" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U10" t="n">
         <v>20.3</v>
@@ -2185,43 +2252,43 @@
         <v>5.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
         <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
         <v>5</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>27</v>
@@ -2245,16 +2312,16 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2263,19 +2330,19 @@
         <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
         <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.632</v>
+        <v>0.649</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J11" t="n">
-        <v>84.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K11" t="n">
         <v>0.465</v>
       </c>
       <c r="L11" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M11" t="n">
         <v>24.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O11" t="n">
         <v>15.7</v>
@@ -2346,16 +2413,16 @@
         <v>0.728</v>
       </c>
       <c r="R11" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S11" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="T11" t="n">
-        <v>46.5</v>
+        <v>46.7</v>
       </c>
       <c r="U11" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V11" t="n">
         <v>17.3</v>
@@ -2370,28 +2437,28 @@
         <v>4.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA11" t="n">
         <v>19.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
@@ -2415,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2424,13 +2491,13 @@
         <v>25</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2445,7 +2512,7 @@
         <v>9</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
         <v>26</v>
@@ -2457,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
         <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>0.639</v>
+        <v>0.629</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,10 +2571,10 @@
         <v>37.4</v>
       </c>
       <c r="J12" t="n">
-        <v>79.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L12" t="n">
         <v>9.1</v>
@@ -2516,37 +2583,37 @@
         <v>26.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="P12" t="n">
-        <v>31.6</v>
+        <v>31.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.699</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S12" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T12" t="n">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="U12" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V12" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y12" t="n">
         <v>5.5</v>
@@ -2555,16 +2622,16 @@
         <v>20.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.8</v>
+        <v>105.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>8</v>
@@ -2573,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
         <v>14</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2606,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2621,10 +2688,10 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8</v>
+        <v>0.824</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
@@ -2686,34 +2753,34 @@
         <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M13" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
         <v>0.356</v>
       </c>
       <c r="O13" t="n">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="P13" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R13" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T13" t="n">
         <v>44.1</v>
@@ -2722,31 +2789,31 @@
         <v>20.6</v>
       </c>
       <c r="V13" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W13" t="n">
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z13" t="n">
         <v>19.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2770,25 +2837,25 @@
         <v>12</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AN13" t="n">
         <v>14</v>
       </c>
       <c r="AO13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP13" t="n">
         <v>13</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>16</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2800,22 +2867,22 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -2850,55 +2917,55 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.658</v>
+        <v>0.649</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J14" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.464</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M14" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O14" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="P14" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="Q14" t="n">
         <v>0.725</v>
       </c>
       <c r="R14" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S14" t="n">
         <v>32.8</v>
       </c>
       <c r="T14" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U14" t="n">
         <v>23.8</v>
@@ -2907,7 +2974,7 @@
         <v>14.2</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X14" t="n">
         <v>4.6</v>
@@ -2919,10 +2986,10 @@
         <v>21.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="AC14" t="n">
         <v>5.1</v>
@@ -2943,7 +3010,7 @@
         <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
@@ -2970,31 +3037,31 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS14" t="n">
         <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3003,7 +3070,7 @@
         <v>6</v>
       </c>
       <c r="BC14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>0.389</v>
+        <v>0.4</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
@@ -3050,19 +3117,19 @@
         <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M15" t="n">
         <v>25.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O15" t="n">
         <v>16.9</v>
@@ -3071,19 +3138,19 @@
         <v>22.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.74</v>
       </c>
       <c r="R15" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="S15" t="n">
         <v>32.9</v>
       </c>
       <c r="T15" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U15" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V15" t="n">
         <v>15.4</v>
@@ -3092,34 +3159,34 @@
         <v>6.6</v>
       </c>
       <c r="X15" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y15" t="n">
         <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="AA15" t="n">
         <v>19.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5</v>
+        <v>-4.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>20</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3128,7 +3195,7 @@
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
         <v>22</v>
@@ -3146,37 +3213,37 @@
         <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
         <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
         <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>-1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
         <v>11</v>
@@ -3325,10 +3392,10 @@
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
         <v>18</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3349,7 +3416,7 @@
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX16" t="n">
         <v>27</v>
@@ -3358,7 +3425,7 @@
         <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -3474,22 +3541,22 @@
         <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,16 +3571,16 @@
         <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="n">
         <v>27</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>27</v>
@@ -3701,7 +3768,7 @@
         <v>17</v>
       </c>
       <c r="AS18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -3760,67 +3827,67 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="J19" t="n">
-        <v>89.3</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M19" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="N19" t="n">
         <v>0.346</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="P19" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.792</v>
+        <v>0.79</v>
       </c>
       <c r="R19" t="n">
         <v>13.7</v>
       </c>
       <c r="S19" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="T19" t="n">
-        <v>46.1</v>
+        <v>45.9</v>
       </c>
       <c r="U19" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V19" t="n">
         <v>14.3</v>
       </c>
       <c r="W19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="X19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Y19" t="n">
         <v>5.7</v>
@@ -3829,25 +3896,25 @@
         <v>17.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>20</v>
@@ -3862,13 +3929,13 @@
         <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM19" t="n">
         <v>9</v>
       </c>
       <c r="AN19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
         <v>2</v>
@@ -3883,10 +3950,10 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.441</v>
+        <v>0.455</v>
       </c>
       <c r="H20" t="n">
         <v>48.6</v>
       </c>
       <c r="I20" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J20" t="n">
-        <v>85.90000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.456</v>
@@ -3969,73 +4036,73 @@
         <v>6.3</v>
       </c>
       <c r="M20" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.765</v>
+        <v>0.763</v>
       </c>
       <c r="R20" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S20" t="n">
         <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
         <v>22.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W20" t="n">
         <v>8.6</v>
       </c>
       <c r="X20" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
         <v>16</v>
       </c>
-      <c r="AF20" t="n">
-        <v>17</v>
-      </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ20" t="n">
         <v>4</v>
@@ -4056,7 +4123,7 @@
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
         <v>12</v>
@@ -4083,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
         <v>22</v>
@@ -4095,7 +4162,7 @@
         <v>14</v>
       </c>
       <c r="BC20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
         <v>24</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4259,25 +4326,25 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA21" t="n">
         <v>23</v>
       </c>
       <c r="BB21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -4384,19 +4451,19 @@
         <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4411,10 +4478,10 @@
         <v>22</v>
       </c>
       <c r="AM22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
@@ -4438,7 +4505,7 @@
         <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW22" t="n">
         <v>12</v>
@@ -4447,10 +4514,10 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>0.286</v>
+        <v>0.294</v>
       </c>
       <c r="H23" t="n">
         <v>48.6</v>
       </c>
       <c r="I23" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L23" t="n">
         <v>7.4</v>
       </c>
       <c r="M23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N23" t="n">
         <v>0.351</v>
       </c>
       <c r="O23" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P23" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R23" t="n">
         <v>9.6</v>
@@ -4542,31 +4609,31 @@
         <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W23" t="n">
         <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.7</v>
+        <v>-4.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4599,28 +4666,28 @@
         <v>16</v>
       </c>
       <c r="AO23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP23" t="n">
         <v>25</v>
       </c>
-      <c r="AP23" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV23" t="n">
         <v>20</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
@@ -4629,19 +4696,19 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB23" t="n">
         <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>24</v>
       </c>
       <c r="AF24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
         <v>25</v>
@@ -4769,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
         <v>18</v>
@@ -4781,10 +4848,10 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4793,13 +4860,13 @@
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
         <v>7</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4820,7 +4887,7 @@
         <v>16</v>
       </c>
       <c r="BB24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -4852,34 +4919,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" t="n">
         <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>0.618</v>
+        <v>0.606</v>
       </c>
       <c r="H25" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I25" t="n">
         <v>38.2</v>
       </c>
       <c r="J25" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L25" t="n">
         <v>9.6</v>
       </c>
       <c r="M25" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N25" t="n">
         <v>0.369</v>
@@ -4888,25 +4955,25 @@
         <v>17.2</v>
       </c>
       <c r="P25" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q25" t="n">
         <v>0.745</v>
       </c>
       <c r="R25" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U25" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V25" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W25" t="n">
         <v>8.800000000000001</v>
@@ -4918,7 +4985,7 @@
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="AA25" t="n">
         <v>20.6</v>
@@ -4927,10 +4994,10 @@
         <v>103.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4945,7 +5012,7 @@
         <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
         <v>14</v>
@@ -4966,25 +5033,25 @@
         <v>14</v>
       </c>
       <c r="AP25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ25" t="n">
         <v>22</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
         <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -4993,7 +5060,7 @@
         <v>8</v>
       </c>
       <c r="AY25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -5034,88 +5101,88 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" t="n">
         <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>0.75</v>
+        <v>0.743</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="J26" t="n">
-        <v>88.3</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L26" t="n">
         <v>10.3</v>
       </c>
       <c r="M26" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N26" t="n">
-        <v>0.395</v>
+        <v>0.398</v>
       </c>
       <c r="O26" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.821</v>
+        <v>0.82</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T26" t="n">
         <v>46.6</v>
       </c>
       <c r="U26" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V26" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W26" t="n">
         <v>5.7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5145,10 +5212,10 @@
         <v>1</v>
       </c>
       <c r="AO26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5157,10 +5224,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
         <v>3</v>
@@ -5181,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>28</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
@@ -5315,19 +5382,19 @@
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
         <v>5</v>
@@ -5342,10 +5409,10 @@
         <v>19</v>
       </c>
       <c r="AT27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.778</v>
+        <v>0.771</v>
       </c>
       <c r="H28" t="n">
         <v>48.1</v>
       </c>
       <c r="I28" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="K28" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
@@ -5428,31 +5495,31 @@
         <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.393</v>
+        <v>0.391</v>
       </c>
       <c r="O28" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="P28" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.763</v>
       </c>
       <c r="R28" t="n">
         <v>9.5</v>
       </c>
       <c r="S28" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>43.2</v>
+        <v>42.8</v>
       </c>
       <c r="U28" t="n">
         <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
         <v>7.8</v>
@@ -5461,25 +5528,25 @@
         <v>4.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="AA28" t="n">
         <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.8</v>
+        <v>104.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
@@ -5494,16 +5561,16 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
@@ -5515,28 +5582,28 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -5580,94 +5647,94 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" t="n">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.485</v>
       </c>
       <c r="H29" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I29" t="n">
         <v>35.9</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L29" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M29" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="N29" t="n">
         <v>0.35</v>
       </c>
       <c r="O29" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.78</v>
+        <v>0.775</v>
       </c>
       <c r="R29" t="n">
         <v>11.6</v>
       </c>
       <c r="S29" t="n">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="U29" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V29" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W29" t="n">
         <v>7.1</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y29" t="n">
         <v>4.9</v>
       </c>
       <c r="Z29" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="AA29" t="n">
         <v>22.5</v>
       </c>
-      <c r="AA29" t="n">
-        <v>22.6</v>
-      </c>
       <c r="AB29" t="n">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
@@ -5676,13 +5743,13 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM29" t="n">
         <v>12</v>
@@ -5706,7 +5773,7 @@
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
         <v>26</v>
@@ -5715,25 +5782,25 @@
         <v>11</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
       </c>
       <c r="AF30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG30" t="n">
         <v>28</v>
@@ -5873,13 +5940,13 @@
         <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>12</v>
@@ -5891,13 +5958,13 @@
         <v>25</v>
       </c>
       <c r="AU30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX30" t="n">
         <v>12</v>
@@ -5909,7 +5976,7 @@
         <v>18</v>
       </c>
       <c r="BA30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" t="n">
         <v>17</v>
       </c>
       <c r="G31" t="n">
-        <v>0.485</v>
+        <v>0.469</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
@@ -5962,43 +6029,43 @@
         <v>37.5</v>
       </c>
       <c r="J31" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L31" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M31" t="n">
         <v>21.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.384</v>
+        <v>0.381</v>
       </c>
       <c r="O31" t="n">
         <v>15.3</v>
       </c>
       <c r="P31" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.746</v>
+        <v>0.751</v>
       </c>
       <c r="R31" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S31" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T31" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U31" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W31" t="n">
         <v>8.5</v>
@@ -6007,22 +6074,22 @@
         <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6043,16 +6110,16 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
         <v>28</v>
@@ -6061,7 +6128,7 @@
         <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>14</v>
@@ -6070,34 +6137,34 @@
         <v>18</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ31" t="n">
         <v>10</v>
       </c>
       <c r="BA31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-8-2013-14</t>
+          <t>2014-01-08</t>
         </is>
       </c>
     </row>
